--- a/relatorios/repasses_liberados/dentistas/06478614450/2023-08-25_relatorio_repasses_06478614450.xlsx
+++ b/relatorios/repasses_liberados/dentistas/06478614450/2023-08-25_relatorio_repasses_06478614450.xlsx
@@ -1690,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N17">
-        <v>2.575</v>
+        <v>1.545</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N296">
         <v>0</v>
@@ -14010,7 +14010,7 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N298">
         <v>0</v>
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14230,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -14318,7 +14318,7 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N304">
         <v>0</v>
@@ -14406,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -14582,7 +14582,7 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N311">
         <v>0</v>
@@ -14670,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N312">
         <v>0</v>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N313">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N314">
         <v>0</v>
@@ -14802,7 +14802,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N316">
         <v>0</v>
@@ -14978,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N319">
         <v>0</v>
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N320">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N354">
         <v>0</v>
@@ -16870,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="M362">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N362">
         <v>0</v>
@@ -16914,7 +16914,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N368">
         <v>0</v>
@@ -17178,7 +17178,7 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N369">
         <v>0</v>
@@ -17750,7 +17750,7 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N382">
         <v>0</v>
@@ -17794,7 +17794,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N383">
         <v>0</v>
@@ -18542,7 +18542,7 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N400">
         <v>0</v>
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N401">
         <v>0</v>
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N403">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/06478614450/2023-08-25_relatorio_repasses_06478614450.xlsx
+++ b/relatorios/repasses_liberados/dentistas/06478614450/2023-08-25_relatorio_repasses_06478614450.xlsx
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2350,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2702,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2746,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N41">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3098,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3142,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3186,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N51">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3846,10 +3846,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N66">
-        <v>6.582</v>
+        <v>8.776000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3890,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N67">
-        <v>6.582</v>
+        <v>8.776000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3934,10 +3934,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N68">
-        <v>6.582</v>
+        <v>8.776000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3978,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N69">
-        <v>6.582</v>
+        <v>8.776000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N70">
-        <v>5.748</v>
+        <v>7.664000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4066,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>9.315</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -5518,10 +5518,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5826,10 +5826,10 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N111">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6310,10 +6310,10 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N122">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6574,10 +6574,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N128">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6618,10 +6618,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N129">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6662,10 +6662,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6882,10 +6882,10 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N135">
-        <v>7.244999999999999</v>
+        <v>12.075</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6926,10 +6926,10 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N136">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N137">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7014,10 +7014,10 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N138">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -7234,10 +7234,10 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N143">
-        <v>5.748</v>
+        <v>7.664000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -7410,10 +7410,10 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N147">
-        <v>6.582</v>
+        <v>8.776000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7982,10 +7982,10 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N160">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8026,10 +8026,10 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N161">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -8158,10 +8158,10 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N164">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8862,10 +8862,10 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N180">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -8906,10 +8906,10 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N181">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -8950,10 +8950,10 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N182">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -9654,10 +9654,10 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N198">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -10930,10 +10930,10 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N227">
-        <v>1.98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -11458,10 +11458,10 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N239">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -11590,10 +11590,10 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N242">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -11634,10 +11634,10 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N243">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -11766,10 +11766,10 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N246">
-        <v>0.03</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -11810,10 +11810,10 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N247">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -11854,10 +11854,10 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N248">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -11898,10 +11898,10 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N249">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -11986,10 +11986,10 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N251">
-        <v>0.003</v>
+        <v>65</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -12030,10 +12030,10 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N252">
-        <v>7.763999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -12162,10 +12162,10 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N255">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -12382,10 +12382,10 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N260">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -12426,10 +12426,10 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N261">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -12514,10 +12514,10 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N263">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -12558,10 +12558,10 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N264">
-        <v>5.184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -12690,10 +12690,10 @@
         <v>0</v>
       </c>
       <c r="M267">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N267">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -13438,10 +13438,10 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N284">
-        <v>9.48</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -13526,10 +13526,10 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N286">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -13570,10 +13570,10 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N287">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N298">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N299">
         <v>0</v>
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14318,7 +14318,7 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N304">
         <v>0</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -14582,7 +14582,7 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N311">
         <v>0</v>
@@ -14802,7 +14802,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N316">
         <v>0</v>
@@ -14934,7 +14934,7 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N318">
         <v>0</v>
@@ -14978,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N319">
         <v>0</v>
@@ -15330,7 +15330,7 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -15858,7 +15858,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N339">
         <v>0</v>
@@ -15902,7 +15902,7 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N340">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N341">
         <v>0</v>
@@ -16474,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="M353">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N353">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N354">
         <v>0</v>
@@ -16562,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N355">
         <v>0</v>
@@ -16694,7 +16694,7 @@
         <v>0</v>
       </c>
       <c r="M358">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N358">
         <v>0</v>
@@ -16914,7 +16914,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N366">
         <v>0</v>
@@ -17354,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N373">
         <v>0</v>
@@ -17398,7 +17398,7 @@
         <v>0</v>
       </c>
       <c r="M374">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N374">
         <v>0</v>
@@ -17442,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="M375">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N375">
         <v>0</v>
@@ -17486,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N376">
         <v>0</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N377">
         <v>0</v>
@@ -17574,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="M378">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N378">
         <v>0</v>
@@ -17618,7 +17618,7 @@
         <v>0</v>
       </c>
       <c r="M379">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N379">
         <v>0</v>
@@ -17750,7 +17750,7 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N382">
         <v>0</v>
@@ -18190,7 +18190,7 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N392">
         <v>0</v>
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N394">
         <v>0</v>
@@ -18322,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N395">
         <v>0</v>
@@ -18366,7 +18366,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N396">
         <v>0</v>
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N401">
         <v>0</v>
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N403">
         <v>0</v>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
       <c r="M409">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N409">
         <v>0</v>
@@ -19114,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N413">
         <v>0</v>
@@ -19290,7 +19290,7 @@
         <v>0</v>
       </c>
       <c r="M417">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N417">
         <v>0</v>
@@ -19334,7 +19334,7 @@
         <v>0</v>
       </c>
       <c r="M418">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N418">
         <v>0</v>
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N419">
         <v>0</v>
@@ -19598,7 +19598,7 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N424">
         <v>0</v>
